--- a/script/result_llm_tranform/px4_docs/px4_position/result.xlsx
+++ b/script/result_llm_tranform/px4_docs/px4_position/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowWidth="28000" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="157">
   <si>
     <t>index</t>
   </si>
@@ -197,6 +197,15 @@
     <t>The vehicle will lower propeller thrust, detect the ground and [automatically disarm](../advanced_config/prearm_arm_disarm.md#auto-disarming) (by default).</t>
   </si>
   <si>
+    <t>{'sentence': '5.The vehicle will lower propeller thrust, detect the ground and automatically disarm (by default).', 'formula': 'F(L ∧ D)', 'explanation': 'Here, L represents lowering propeller thrust, and D represents detecting the ground and disarming. The formula states that eventually, the vehicle will lower propeller thrust and detect the ground, leading to automatic disarming.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '5.The vehicle will lower propeller thrust, detect the ground and automatically disarm (by default).', 'formula': 'F(T ∧ G ∧ D)', 'explanation': 'T represents lowering propeller thrust, G represents ground detection, and D represents automatic disarming. The formula indicates that eventually, all these actions will occur.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '5.The vehicle will lower propeller thrust, detect the ground and automatically disarm (by default).', 'formula': 'G(L → F[0,d](T ∧ F[0,g](G ∧ F[0,a](D))))', 'explanation': 'L is landing initiation, T is thrust lowering, G is ground detection, D is disarming. This complex formula captures the sequence of events in landing, each happening within specific time bounds d, g, and a.'}</t>
+  </si>
+  <si>
     <t>constraint</t>
   </si>
   <si>
@@ -474,15 +483,6 @@
   </si>
   <si>
     <t>{'sentence': 'If the estimate falls below acceptable levels, for example due to GPS loss, this may trigger a Position (GPS) Loss Failsafe.', 'formula': 'G(E → F[0,∞](F))', 'explanation': "This formula uses E to represent the estimate falling below acceptable levels, and F to represent the triggering of the Position Loss Failsafe. The G operator ensures that this condition is checked globally (at all times). The implication (→) captures the causal relationship, while the F[0,∞] allows for the failsafe to be triggered at any time after the estimate falls below acceptable levels, representing the 'may trigger' aspect."}</t>
-  </si>
-  <si>
-    <t>{'sentence': '5.The vehicle will lower propeller thrust, detect the ground and automatically disarm (by default).', 'formula': 'F(L ∧ D)', 'explanation': 'Here, L represents lowering propeller thrust, and D represents detecting the ground and disarming. The formula states that eventually, the vehicle will lower propeller thrust and detect the ground, leading to automatic disarming.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '5.The vehicle will lower propeller thrust, detect the ground and automatically disarm (by default).', 'formula': 'F(T ∧ G ∧ D)', 'explanation': 'T represents lowering propeller thrust, G represents ground detection, and D represents automatic disarming. The formula indicates that eventually, all these actions will occur.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '5.The vehicle will lower propeller thrust, detect the ground and automatically disarm (by default).', 'formula': 'G(L → F[0,d](T ∧ F[0,g](G ∧ F[0,a](D))))', 'explanation': 'L is landing initiation, T is thrust lowering, G is ground detection, D is disarming. This complex formula captures the sequence of events in landing, each happening within specific time bounds d, g, and a.'}</t>
   </si>
   <si>
     <t>{'sentence': 'After the vehicle is on the ground switch to Stabilized mode keeping the throttle stick low, and manually disarm using a gesture or other command.', 'formula': 'G(V → (S ∧ T ∧ D))', 'explanation': 'Here, V represents the vehicle being on the ground, S represents switching to Stabilized mode, T represents keeping the throttle stick low, and D represents manually disarming. The formula states that globally, if the vehicle is on the ground, it will switch to Stabilized mode, keep the throttle stick low, and disarm manually.'}</t>
@@ -510,7 +510,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,13 +521,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -995,148 +988,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,8 +1489,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1652,20 +1645,20 @@
       <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
+      <c r="H4" s="2">
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
+      <c r="J4" s="2">
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>7</v>
+      <c r="L4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="101" spans="1:12">
@@ -1740,8 +1733,8 @@
       <c r="K6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>7</v>
+      <c r="L6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="118" spans="1:12">
@@ -1804,8 +1797,8 @@
       <c r="G8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
+      <c r="H8" s="2">
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>7</v>
@@ -1816,8 +1809,8 @@
       <c r="K8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>7</v>
+      <c r="L8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="101" spans="1:12">
@@ -1896,7 +1889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="68" spans="1:12">
+    <row r="11" ht="135" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1916,22 +1909,22 @@
         <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="84" spans="1:12">
@@ -1939,19 +1932,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -1977,13 +1970,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
@@ -1992,7 +1985,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>7</v>
@@ -2018,19 +2011,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>7</v>
@@ -2056,31 +2049,31 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>7</v>
@@ -2094,31 +2087,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>7</v>
@@ -2132,10 +2125,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>40</v>
@@ -2170,16 +2163,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -2194,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>7</v>
@@ -2208,16 +2201,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -2232,7 +2225,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>7</v>
@@ -2246,16 +2239,16 @@
         <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
@@ -2270,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>7</v>
@@ -2284,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>40</v>
@@ -2322,31 +2315,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>7</v>
@@ -2357,34 +2350,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>7</v>
@@ -2395,22 +2388,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>7</v>
@@ -2422,7 +2415,7 @@
         <v>7</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>7</v>
@@ -2436,16 +2429,16 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>7</v>
@@ -2460,7 +2453,7 @@
         <v>7</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>7</v>
@@ -2474,16 +2467,16 @@
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>7</v>
@@ -2498,7 +2491,7 @@
         <v>7</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>7</v>
@@ -2512,16 +2505,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>7</v>
@@ -2536,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>7</v>
@@ -2547,19 +2540,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>7</v>
@@ -2574,7 +2567,7 @@
         <v>7</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>7</v>
@@ -2588,31 +2581,31 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>7</v>
@@ -2732,7 +2725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" ht="135" spans="1:12">
+    <row r="33" ht="17" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2750,21 +2743,6 @@
       </c>
       <c r="F33" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>7</v>

--- a/script/result_llm_tranform/px4_docs/px4_position/result.xlsx
+++ b/script/result_llm_tranform/px4_docs/px4_position/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15540"/>
+    <workbookView windowWidth="26860" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="157">
   <si>
     <t>index</t>
   </si>
@@ -221,6 +221,9 @@
     <t>This formula states that globally (G), when in Altitude mode (M) and the vehicle stays above the landing spot is manually ensured by using the roll and pitch stick , it's always possible to eventually (F) land (L). This captures the possibility of controlled landing in a different mode.</t>
   </si>
   <si>
+    <t>{'sentence': 'The approach is the same as above, except that you must manually ensure that the vehicle stays above the landing spot using the roll and pitch stick.', 'formula': 'G(R ∧ P → A)', 'explanation': 'Here, R represents using the roll stick, P represents using the pitch stick, and A represents the vehicle staying above the landing spot. The formula states that globally, if the roll and pitch sticks are used, the vehicle will stay above the landing spot.'}</t>
+  </si>
+  <si>
     <t>state transition pre-requirement</t>
   </si>
   <si>
@@ -228,9 +231,6 @@
   </si>
   <si>
     <t>The approach is the same as above, except that you must manually ensure that the vehicle stays above the landing spot using the roll and pitch stick.</t>
-  </si>
-  <si>
-    <t>{'sentence': 'The approach is the same as above, except that you must manually ensure that the vehicle stays above the landing spot using the roll and pitch stick.', 'formula': 'G(R ∧ P → A)', 'explanation': 'Here, R represents using the roll stick, P represents using the pitch stick, and A represents the vehicle staying above the landing spot. The formula states that globally, if the roll and pitch sticks are used, the vehicle will stay above the landing spot.'}</t>
   </si>
   <si>
     <t>43-43</t>
@@ -1489,8 +1489,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1797,9 +1797,7 @@
       <c r="G8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1809,9 +1807,7 @@
       <c r="K8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" ht="101" spans="1:12">
       <c r="A9" s="2">
@@ -1927,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="84" spans="1:12">
+    <row r="12" ht="135" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1947,10 +1943,10 @@
         <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>7</v>
@@ -1965,30 +1961,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="135" spans="1:12">
+    <row r="13" ht="84" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>7</v>
@@ -2770,8 +2760,8 @@
       <c r="G34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>7</v>
+      <c r="H34" s="2">
+        <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>153</v>
